--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="205">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,16 +49,19 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>however</t>
@@ -67,15 +70,15 @@
     <t>junk</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>cheap</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
@@ -106,513 +115,507 @@
     <t>love</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>charm</t>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
   <si>
     <t>sauce</t>
   </si>
   <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>cooke</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>bun</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>dough</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
     <t>ago</t>
   </si>
   <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>fits</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>comes</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>quickly</t>
+  </si>
+  <si>
+    <t>purchased</t>
   </si>
   <si>
     <t>anyone</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>grip</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>ox</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>pot</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>come</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>wanted</t>
   </si>
   <si>
     <t>sharp</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>cup</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>say</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>keep</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>handle</t>
   </si>
   <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>knife</t>
   </si>
   <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -620,6 +623,9 @@
   </si>
   <si>
     <t>would</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>positive</t>
@@ -980,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q180"/>
+  <dimension ref="A1:Q181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,10 +994,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1070,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9655172413793104</v>
@@ -1099,13 +1105,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1117,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1141,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1149,13 +1155,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1167,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1199,13 +1205,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6037735849056604</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1217,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1241,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1249,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5038759689922481</v>
+        <v>0.46</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1267,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8869969040247678</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>573</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>573</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1291,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1299,13 +1305,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.494949494949495</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1317,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8746130030959752</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>565</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>565</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1341,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1349,13 +1355,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.36</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1367,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8828125</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L9">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="M9">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1391,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1399,13 +1405,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3461538461538461</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1417,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.855072463768116</v>
+        <v>0.85</v>
       </c>
       <c r="L10">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1449,13 +1455,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2884615384615384</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1467,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1491,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1499,13 +1505,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2216216216216216</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1517,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1570,16 +1576,16 @@
         <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.7894736842105263</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1591,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1599,13 +1605,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1888888888888889</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1617,31 +1623,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>0.7525423728813559</v>
+      </c>
+      <c r="L14">
+        <v>222</v>
+      </c>
+      <c r="M14">
+        <v>222</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>73</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="L14">
-        <v>15</v>
-      </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1649,13 +1655,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1779661016949153</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1667,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1691,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1699,37 +1705,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1292517006802721</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>94</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="L16">
         <v>19</v>
       </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>0.05</v>
-      </c>
-      <c r="F16">
-        <v>0.95</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>128</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.7532467532467533</v>
-      </c>
-      <c r="L16">
-        <v>58</v>
-      </c>
       <c r="M16">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1741,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1749,37 +1755,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1288659793814433</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7489177489177489</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M17">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1791,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1799,89 +1805,137 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0276625172890733</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>0.03</v>
+      </c>
+      <c r="F18">
+        <v>0.97</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>166</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.04664723032069971</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>0.64</v>
+      </c>
+      <c r="F19">
+        <v>0.36</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>327</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="L19">
+        <v>46</v>
+      </c>
+      <c r="M19">
+        <v>46</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.02808988764044944</v>
+      </c>
+      <c r="C20">
         <v>20</v>
       </c>
-      <c r="D18">
-        <v>64</v>
-      </c>
-      <c r="E18">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F18">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>703</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7322033898305085</v>
-      </c>
-      <c r="L18">
-        <v>216</v>
-      </c>
-      <c r="M18">
-        <v>216</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>27</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>0.73</v>
+      </c>
+      <c r="F20">
+        <v>0.27</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>692</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.6901408450704225</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1893,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6888888888888889</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1919,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.6781701444622793</v>
+        <v>0.6709470304975923</v>
       </c>
       <c r="L22">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="M22">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1945,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6764705882352942</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1971,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6712328767123288</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1997,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2023,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.6615384615384615</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2049,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.6538461538461539</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2075,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.6530612244897959</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2101,21 +2155,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.6410256410256411</v>
+        <v>0.640625</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2127,21 +2181,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.64</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L30">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M30">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2153,21 +2207,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.64</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2179,12 +2233,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K32">
         <v>0.6296296296296297</v>
@@ -2210,16 +2264,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.6274509803921569</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2231,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.6206896551724138</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2257,21 +2311,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.6142857142857143</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2283,21 +2337,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.5972222222222222</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2309,21 +2363,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.5961538461538461</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2335,21 +2389,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.5868263473053892</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L38">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2361,21 +2415,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.5783132530120482</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2387,21 +2441,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.575</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2413,21 +2467,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.5726495726495726</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L41">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2439,21 +2493,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.5679012345679012</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L42">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2465,21 +2519,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.5625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2496,16 +2550,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.5555555555555556</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2517,21 +2571,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.5538461538461539</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2543,21 +2597,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.5526315789473685</v>
+        <v>0.5688622754491018</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2569,21 +2623,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.5526315789473685</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2595,21 +2649,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.5428571428571428</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2621,21 +2675,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K49">
-        <v>0.5409836065573771</v>
+        <v>0.55</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2647,21 +2701,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>0.5394736842105263</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2673,21 +2727,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>0.5365853658536586</v>
+        <v>0.51</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2699,21 +2753,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K52">
-        <v>0.5306122448979592</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2725,21 +2779,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2751,21 +2805,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K54">
-        <v>0.5151515151515151</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2777,15 +2831,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K55">
-        <v>0.5128205128205128</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L55">
         <v>20</v>
@@ -2803,21 +2857,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K56">
-        <v>0.5037593984962406</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="L56">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2829,21 +2883,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K57">
-        <v>0.5</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2855,47 +2909,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K58">
-        <v>0.4677419354838709</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="L58">
+        <v>26</v>
+      </c>
+      <c r="M58">
+        <v>26</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>29</v>
-      </c>
-      <c r="M58">
-        <v>29</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>33</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K59">
-        <v>0.4642857142857143</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L59">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2907,47 +2961,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K60">
-        <v>0.4609375</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="L60">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K61">
-        <v>0.4603174603174603</v>
+        <v>0.4513618677042802</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2959,21 +3013,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>34</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K62">
-        <v>0.4578313253012048</v>
+        <v>0.45</v>
       </c>
       <c r="L62">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2985,73 +3039,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K63">
-        <v>0.4447174447174447</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L63">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>226</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K64">
-        <v>0.4411764705882353</v>
+        <v>0.4454545454545454</v>
       </c>
       <c r="L64">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M64">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K65">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3068,16 +3122,16 @@
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K66">
-        <v>0.425531914893617</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3089,21 +3143,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K67">
-        <v>0.4181818181818182</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3115,21 +3169,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K68">
-        <v>0.4166666666666667</v>
+        <v>0.4183813443072703</v>
       </c>
       <c r="L68">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="M68">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3138,76 +3192,76 @@
         <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>42</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K69">
-        <v>0.4144144144144144</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="L69">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K70">
-        <v>0.4054054054054054</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L70">
+        <v>31</v>
+      </c>
+      <c r="M70">
+        <v>31</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
         <v>45</v>
-      </c>
-      <c r="M70">
-        <v>45</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>66</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K71">
-        <v>0.4039735099337748</v>
+        <v>0.4068627450980392</v>
       </c>
       <c r="L71">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="M71">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3219,47 +3273,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>90</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K72">
-        <v>0.4010989010989011</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L72">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="M72">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="N72">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>436</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K73">
-        <v>0.391304347826087</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3271,21 +3325,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K74">
-        <v>0.391304347826087</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3297,73 +3351,73 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K75">
-        <v>0.37</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L75">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M75">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N75">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K76">
-        <v>0.3636363636363636</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L76">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M76">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K77">
-        <v>0.3571428571428572</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L77">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3375,21 +3429,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K78">
-        <v>0.3488372093023256</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3401,21 +3455,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K79">
-        <v>0.3425925925925926</v>
+        <v>0.359375</v>
       </c>
       <c r="L79">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3427,21 +3481,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K80">
-        <v>0.3381294964028777</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L80">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3453,21 +3507,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K81">
-        <v>0.3349282296650718</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L81">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3479,21 +3533,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K82">
-        <v>0.3286637931034483</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="L82">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="M82">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3502,24 +3556,24 @@
         <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>623</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K83">
-        <v>0.3214285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L83">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M83">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3531,21 +3585,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K84">
-        <v>0.3194444444444444</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M84">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3557,21 +3611,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K85">
-        <v>0.3137254901960784</v>
+        <v>0.3308189655172414</v>
       </c>
       <c r="L85">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="M85">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3580,128 +3634,128 @@
         <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K86">
-        <v>0.302013422818792</v>
+        <v>0.328125</v>
       </c>
       <c r="L86">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M86">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K87">
-        <v>0.296875</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L87">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K88">
-        <v>0.296875</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L88">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M88">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K89">
-        <v>0.2966887417218543</v>
+        <v>0.32</v>
       </c>
       <c r="L89">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>531</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K90">
-        <v>0.2957746478873239</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L90">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="M90">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3710,24 +3764,24 @@
         <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>550</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K91">
-        <v>0.2941176470588235</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L91">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M91">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3739,73 +3793,73 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K92">
-        <v>0.2826086956521739</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L92">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M92">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N92">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K93">
-        <v>0.2767857142857143</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L93">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M93">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N93">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K94">
-        <v>0.2727272727272727</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M94">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3817,47 +3871,47 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K95">
-        <v>0.2631578947368421</v>
+        <v>0.3011583011583012</v>
       </c>
       <c r="L95">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="M95">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>56</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K96">
-        <v>0.2622950819672131</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L96">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3869,47 +3923,47 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K97">
-        <v>0.2615803814713896</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="L97">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="M97">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="N97">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>271</v>
+        <v>533</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K98">
-        <v>0.26</v>
+        <v>0.28125</v>
       </c>
       <c r="L98">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3921,47 +3975,47 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K99">
-        <v>0.2571428571428571</v>
+        <v>0.2699386503067485</v>
       </c>
       <c r="L99">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M99">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K100">
-        <v>0.2538461538461538</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L100">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M100">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3973,73 +4027,73 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K101">
-        <v>0.25</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L101">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M101">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N101">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K102">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L102">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M102">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K103">
-        <v>0.2478632478632479</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L103">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M103">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -4051,21 +4105,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K104">
-        <v>0.2441860465116279</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="L104">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M104">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -4077,47 +4131,47 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K105">
-        <v>0.2394366197183098</v>
+        <v>0.25</v>
       </c>
       <c r="L105">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M105">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K106">
-        <v>0.2391304347826087</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L106">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M106">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -4129,21 +4183,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K107">
-        <v>0.2388059701492537</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L107">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M107">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -4155,21 +4209,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K108">
-        <v>0.2382445141065831</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="L108">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="M108">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -4181,73 +4235,73 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>243</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K109">
-        <v>0.2379182156133829</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="L109">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M109">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N109">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>205</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K110">
-        <v>0.2368421052631579</v>
+        <v>0.2389937106918239</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M110">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="N110">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O110">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>58</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K111">
-        <v>0.2323232323232323</v>
+        <v>0.2346491228070176</v>
       </c>
       <c r="L111">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="M111">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4259,73 +4313,73 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>76</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K112">
-        <v>0.2285714285714286</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="L112">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="M112">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N112">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K113">
-        <v>0.2269938650306748</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L113">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M113">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N113">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O113">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K114">
-        <v>0.2235294117647059</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L114">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M114">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4337,151 +4391,151 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K115">
-        <v>0.2207792207792208</v>
+        <v>0.2261306532663317</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>60</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K116">
-        <v>0.2183098591549296</v>
+        <v>0.2259259259259259</v>
       </c>
       <c r="L116">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M116">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N116">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O116">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>111</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K117">
-        <v>0.2147239263803681</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L117">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M117">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K118">
-        <v>0.2137404580152672</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L118">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M118">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K119">
-        <v>0.2131147540983606</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L119">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="M119">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
-        <v>96</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K120">
-        <v>0.2048192771084337</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L120">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M120">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4493,21 +4547,21 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K121">
-        <v>0.2045454545454546</v>
+        <v>0.2100238663484487</v>
       </c>
       <c r="L121">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M121">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4519,21 +4573,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>70</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K122">
-        <v>0.2033898305084746</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="L122">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M122">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4545,21 +4599,21 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K123">
-        <v>0.2027027027027027</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L123">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M123">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4571,47 +4625,47 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K124">
-        <v>0.2018348623853211</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="L124">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M124">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K125">
-        <v>0.2015503875968992</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="L125">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M125">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4623,47 +4677,47 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K126">
-        <v>0.2007434944237918</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="L126">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M126">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N126">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>215</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K127">
-        <v>0.2004773269689737</v>
+        <v>0.2</v>
       </c>
       <c r="L127">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M127">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4675,21 +4729,21 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>335</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K128">
-        <v>0.1984126984126984</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="L128">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M128">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -4701,47 +4755,47 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K129">
-        <v>0.1951219512195122</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="L129">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M129">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="N129">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O129">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P129" t="b">
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>330</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K130">
-        <v>0.1848739495798319</v>
+        <v>0.1922141119221411</v>
       </c>
       <c r="L130">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M130">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -4753,73 +4807,73 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>194</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K131">
-        <v>0.1821305841924399</v>
+        <v>0.192</v>
       </c>
       <c r="L131">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M131">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131">
-        <v>238</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K132">
-        <v>0.1818181818181818</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L132">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M132">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>126</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K133">
-        <v>0.175</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="L133">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="M133">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -4831,203 +4885,203 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>363</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K134">
-        <v>0.1696969696969697</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L134">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M134">
         <v>28</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K135">
-        <v>0.1689189189189189</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="L135">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M135">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q135">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K136">
-        <v>0.168141592920354</v>
+        <v>0.1862068965517241</v>
       </c>
       <c r="L136">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M136">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136">
-        <v>94</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K137">
-        <v>0.1650485436893204</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L137">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M137">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N137">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O137">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K138">
-        <v>0.165</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L138">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M138">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N138">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O138">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P138" t="b">
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>167</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K139">
-        <v>0.1578947368421053</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L139">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M139">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N139">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O139">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>96</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K140">
-        <v>0.1572327044025157</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="L140">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M140">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N140">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O140">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K141">
-        <v>0.1538461538461539</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="L141">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M141">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -5039,73 +5093,73 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K142">
-        <v>0.1510791366906475</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="L142">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M142">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N142">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O142">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P142" t="b">
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K143">
-        <v>0.1477761836441894</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="L143">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="M143">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="N143">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O143">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P143" t="b">
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>594</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K144">
-        <v>0.1475409836065574</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L144">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M144">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -5117,197 +5171,197 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>312</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K145">
-        <v>0.1438356164383562</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="L145">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M145">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N145">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O145">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P145" t="b">
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K146">
-        <v>0.1436781609195402</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="L146">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M146">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N146">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O146">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K147">
-        <v>0.1409395973154362</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="L147">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M147">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K148">
-        <v>0.1400966183574879</v>
+        <v>0.152958152958153</v>
       </c>
       <c r="L148">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M148">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="N148">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O148">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P148" t="b">
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>178</v>
+        <v>587</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K149">
-        <v>0.1381578947368421</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="L149">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M149">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N149">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O149">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P149" t="b">
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K150">
-        <v>0.1333333333333333</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="L150">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M150">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N150">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O150">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q150">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K151">
-        <v>0.131578947368421</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="L151">
         <v>15</v>
       </c>
       <c r="M151">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O151">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q151">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K152">
-        <v>0.1256830601092896</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="L152">
         <v>23</v>
@@ -5325,735 +5379,761 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K153">
-        <v>0.1246485473289597</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="L153">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="M153">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="N153">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O153">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>934</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K154">
-        <v>0.1220930232558139</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L154">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M154">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N154">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O154">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q154">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K155">
-        <v>0.1217712177121771</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="L155">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M155">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N155">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O155">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P155" t="b">
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>238</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K156">
-        <v>0.1209677419354839</v>
+        <v>0.1256410256410256</v>
       </c>
       <c r="L156">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M156">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q156">
-        <v>218</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K157">
-        <v>0.1176470588235294</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="L157">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M157">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N157">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O157">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q157">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K158">
-        <v>0.1063829787234043</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="L158">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M158">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N158">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O158">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q158">
-        <v>126</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K159">
-        <v>0.104089219330855</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="L159">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M159">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N159">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O159">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P159" t="b">
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>482</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K160">
-        <v>0.104020979020979</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L160">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="M160">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="N160">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O160">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>1025</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K161">
-        <v>0.1</v>
+        <v>0.1083916083916084</v>
       </c>
       <c r="L161">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="M161">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="N161">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O161">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q161">
-        <v>144</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K162">
-        <v>0.1</v>
+        <v>0.1083172147001934</v>
       </c>
       <c r="L162">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M162">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N162">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O162">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>351</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K163">
-        <v>0.0970873786407767</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="L163">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M163">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N163">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O163">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P163" t="b">
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>372</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K164">
-        <v>0.0970464135021097</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L164">
+        <v>21</v>
+      </c>
+      <c r="M164">
         <v>23</v>
       </c>
-      <c r="M164">
-        <v>25</v>
-      </c>
       <c r="N164">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O164">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P164" t="b">
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="10:17">
       <c r="J165" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K165">
-        <v>0.09523809523809523</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L165">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M165">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N165">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O165">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q165">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K166">
-        <v>0.0949367088607595</v>
+        <v>0.1031941031941032</v>
       </c>
       <c r="L166">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M166">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N166">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O166">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>143</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="10:17">
       <c r="J167" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K167">
-        <v>0.09467455621301775</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="L167">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M167">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N167">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O167">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P167" t="b">
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="10:17">
       <c r="J168" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K168">
-        <v>0.09411764705882353</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L168">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M168">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N168">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O168">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P168" t="b">
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>154</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="10:17">
       <c r="J169" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K169">
-        <v>0.09230769230769231</v>
+        <v>0.09205020920502092</v>
       </c>
       <c r="L169">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M169">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N169">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O169">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q169">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="10:17">
       <c r="J170" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K170">
-        <v>0.0898876404494382</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="L170">
         <v>16</v>
       </c>
       <c r="M170">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N170">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="O170">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="P170" t="b">
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="10:17">
       <c r="J171" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K171">
-        <v>0.08829174664107485</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L171">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M171">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N171">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="O171">
-        <v>0.02000000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="P171" t="b">
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>475</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="10:17">
       <c r="J172" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K172">
-        <v>0.08695652173913043</v>
+        <v>0.08503401360544217</v>
       </c>
       <c r="L172">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M172">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N172">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O172">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q172">
-        <v>168</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="10:17">
       <c r="J173" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K173">
-        <v>0.08040201005025126</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="L173">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M173">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N173">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O173">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P173" t="b">
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>183</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" spans="10:17">
       <c r="J174" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K174">
-        <v>0.07560137457044673</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L174">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M174">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N174">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O174">
-        <v>0.27</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P174" t="b">
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>269</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="10:17">
       <c r="J175" s="1" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="K175">
-        <v>0.07479224376731301</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="L175">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M175">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N175">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="O175">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="P175" t="b">
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="10:17">
       <c r="J176" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K176">
-        <v>0.06963788300835655</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L176">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M176">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N176">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="O176">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="P176" t="b">
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>334</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="10:17">
       <c r="J177" s="1" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="K177">
-        <v>0.06764705882352941</v>
+        <v>0.07362784471218206</v>
       </c>
       <c r="L177">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M177">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N177">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="O177">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="P177" t="b">
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>317</v>
+        <v>692</v>
       </c>
     </row>
     <row r="178" spans="10:17">
       <c r="J178" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K178">
+        <v>0.05294117647058823</v>
+      </c>
+      <c r="L178">
+        <v>18</v>
+      </c>
+      <c r="M178">
         <v>23</v>
       </c>
-      <c r="K178">
-        <v>0.05890227576974565</v>
-      </c>
-      <c r="L178">
-        <v>44</v>
-      </c>
-      <c r="M178">
-        <v>64</v>
-      </c>
       <c r="N178">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="O178">
-        <v>0.3100000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="P178" t="b">
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>703</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="10:17">
       <c r="J179" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K179">
-        <v>0.04347826086956522</v>
+        <v>0.04335260115606936</v>
       </c>
       <c r="L179">
         <v>15</v>
       </c>
       <c r="M179">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N179">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O179">
-        <v>0.46</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P179" t="b">
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="10:17">
       <c r="J180" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K180">
-        <v>0.03172413793103449</v>
+        <v>0.04281767955801105</v>
       </c>
       <c r="L180">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M180">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N180">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="O180">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="P180" t="b">
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>702</v>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="181" spans="10:17">
+      <c r="J181" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K181">
+        <v>0.03911980440097799</v>
+      </c>
+      <c r="L181">
+        <v>16</v>
+      </c>
+      <c r="M181">
+        <v>17</v>
+      </c>
+      <c r="N181">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O181">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P181" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
